--- a/Dataset/15/낮과밤_학습(15)/낮과밤12.xlsx
+++ b/Dataset/15/낮과밤_학습(15)/낮과밤12.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\doohk\Desktop\낮과밤_학습(15)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\doohk\Desktop\GIST\4학년 1학기\AI 프로젝트\AI\Dataset\15\낮과밤_학습(15)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2494D80-76A2-4B21-A80F-7FF893289014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D0605D0-8839-4F9C-95FF-9C228FBAE65E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1131" yWindow="1131" windowWidth="16329" windowHeight="13055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$530</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$530</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="1057">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="1058">
   <si>
     <t>Time</t>
   </si>
@@ -3207,6 +3207,10 @@
   </si>
   <si>
     <t>Fixed-label</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sigmoid_label</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3579,10 +3583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E530"/>
+  <dimension ref="A1:F530"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
@@ -3591,7 +3595,7 @@
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3605,10 +3609,10 @@
         <v>1056</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -3625,8 +3629,11 @@
       <c r="E2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -3640,8 +3647,11 @@
         <f t="shared" ref="D3:D66" si="0">IF(C3&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -3655,8 +3665,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -3670,8 +3683,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -3685,8 +3701,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -3700,8 +3719,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -3715,8 +3737,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -3730,8 +3755,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -3745,8 +3773,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -3760,8 +3791,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -3775,8 +3809,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -3790,8 +3827,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -3805,8 +3845,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -3820,8 +3863,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -3835,8 +3881,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -3850,8 +3899,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -3865,8 +3917,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -3880,8 +3935,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -3895,8 +3953,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -3910,8 +3971,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -3925,8 +3989,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -3940,8 +4007,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -3958,8 +4028,11 @@
       <c r="E24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -3973,8 +4046,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -3991,8 +4067,11 @@
       <c r="E26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>53</v>
       </c>
@@ -4006,8 +4085,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -4021,8 +4103,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -4036,8 +4121,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>59</v>
       </c>
@@ -4051,8 +4139,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>61</v>
       </c>
@@ -4066,8 +4157,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>63</v>
       </c>
@@ -4081,8 +4175,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>65</v>
       </c>
@@ -4096,8 +4193,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>67</v>
       </c>
@@ -4111,8 +4211,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>69</v>
       </c>
@@ -4126,8 +4229,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>71</v>
       </c>
@@ -4141,8 +4247,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>73</v>
       </c>
@@ -4156,8 +4265,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>75</v>
       </c>
@@ -4171,8 +4283,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>77</v>
       </c>
@@ -4186,8 +4301,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>79</v>
       </c>
@@ -4201,8 +4319,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>81</v>
       </c>
@@ -4216,8 +4337,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>83</v>
       </c>
@@ -4231,8 +4355,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>85</v>
       </c>
@@ -4246,8 +4373,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>87</v>
       </c>
@@ -4264,8 +4394,11 @@
       <c r="E44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>89</v>
       </c>
@@ -4279,8 +4412,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>91</v>
       </c>
@@ -4294,8 +4430,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>93</v>
       </c>
@@ -4309,8 +4448,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>95</v>
       </c>
@@ -4324,8 +4466,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>97</v>
       </c>
@@ -4342,8 +4487,11 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>99</v>
       </c>
@@ -4357,8 +4505,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>101</v>
       </c>
@@ -4372,8 +4523,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>103</v>
       </c>
@@ -4387,8 +4541,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>105</v>
       </c>
@@ -4402,8 +4559,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>107</v>
       </c>
@@ -4417,8 +4577,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>109</v>
       </c>
@@ -4432,8 +4595,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>111</v>
       </c>
@@ -4450,8 +4616,11 @@
       <c r="E56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>113</v>
       </c>
@@ -4465,8 +4634,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>115</v>
       </c>
@@ -4480,8 +4652,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>117</v>
       </c>
@@ -4495,8 +4670,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>119</v>
       </c>
@@ -4510,8 +4688,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>121</v>
       </c>
@@ -4525,8 +4706,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>123</v>
       </c>
@@ -4540,8 +4724,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>125</v>
       </c>
@@ -4555,8 +4742,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>127</v>
       </c>
@@ -4570,8 +4760,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>129</v>
       </c>
@@ -4585,8 +4778,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>131</v>
       </c>
@@ -4600,8 +4796,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>133</v>
       </c>
@@ -4615,8 +4814,11 @@
         <f t="shared" ref="D67:D130" si="1">IF(C67&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>135</v>
       </c>
@@ -4630,8 +4832,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>137</v>
       </c>
@@ -4645,8 +4850,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>139</v>
       </c>
@@ -4660,8 +4868,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>141</v>
       </c>
@@ -4675,8 +4886,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>143</v>
       </c>
@@ -4690,8 +4904,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>145</v>
       </c>
@@ -4705,8 +4922,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>147</v>
       </c>
@@ -4720,8 +4940,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>149</v>
       </c>
@@ -4738,8 +4961,11 @@
       <c r="E75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>151</v>
       </c>
@@ -4753,8 +4979,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>153</v>
       </c>
@@ -4768,8 +4997,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>155</v>
       </c>
@@ -4783,8 +5015,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>157</v>
       </c>
@@ -4801,8 +5036,11 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>159</v>
       </c>
@@ -4816,8 +5054,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>161</v>
       </c>
@@ -4831,8 +5072,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
         <v>163</v>
       </c>
@@ -4846,8 +5090,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>165</v>
       </c>
@@ -4861,8 +5108,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
         <v>167</v>
       </c>
@@ -4876,8 +5126,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
         <v>169</v>
       </c>
@@ -4891,8 +5144,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
         <v>171</v>
       </c>
@@ -4906,8 +5162,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
         <v>173</v>
       </c>
@@ -4921,8 +5180,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
         <v>175</v>
       </c>
@@ -4936,8 +5198,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
         <v>177</v>
       </c>
@@ -4951,8 +5216,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
         <v>179</v>
       </c>
@@ -4966,8 +5234,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
         <v>181</v>
       </c>
@@ -4981,8 +5252,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
         <v>183</v>
       </c>
@@ -4996,8 +5270,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
         <v>185</v>
       </c>
@@ -5011,8 +5288,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
         <v>187</v>
       </c>
@@ -5026,8 +5306,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
         <v>189</v>
       </c>
@@ -5041,8 +5324,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
         <v>191</v>
       </c>
@@ -5056,8 +5342,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
         <v>193</v>
       </c>
@@ -5071,8 +5360,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
         <v>195</v>
       </c>
@@ -5086,8 +5378,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
         <v>197</v>
       </c>
@@ -5104,8 +5399,11 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
         <v>199</v>
       </c>
@@ -5119,8 +5417,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
         <v>201</v>
       </c>
@@ -5134,8 +5435,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
         <v>203</v>
       </c>
@@ -5149,8 +5453,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
         <v>205</v>
       </c>
@@ -5164,8 +5471,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
         <v>207</v>
       </c>
@@ -5179,8 +5489,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
         <v>209</v>
       </c>
@@ -5194,8 +5507,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
         <v>211</v>
       </c>
@@ -5209,8 +5525,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
         <v>213</v>
       </c>
@@ -5224,8 +5543,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
         <v>215</v>
       </c>
@@ -5239,8 +5561,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
         <v>217</v>
       </c>
@@ -5254,8 +5579,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
         <v>219</v>
       </c>
@@ -5269,8 +5597,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
         <v>221</v>
       </c>
@@ -5287,8 +5618,11 @@
       <c r="E111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
         <v>223</v>
       </c>
@@ -5302,8 +5636,11 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
         <v>225</v>
       </c>
@@ -5317,8 +5654,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
         <v>227</v>
       </c>
@@ -5332,8 +5672,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
         <v>229</v>
       </c>
@@ -5347,8 +5690,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
         <v>231</v>
       </c>
@@ -5362,8 +5708,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
         <v>233</v>
       </c>
@@ -5377,8 +5726,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
         <v>235</v>
       </c>
@@ -5392,8 +5744,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
         <v>237</v>
       </c>
@@ -5407,8 +5762,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
         <v>239</v>
       </c>
@@ -5422,8 +5780,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
         <v>241</v>
       </c>
@@ -5437,8 +5798,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="s">
         <v>243</v>
       </c>
@@ -5452,8 +5816,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
         <v>245</v>
       </c>
@@ -5467,8 +5834,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="s">
         <v>247</v>
       </c>
@@ -5482,8 +5852,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" t="s">
         <v>249</v>
       </c>
@@ -5497,8 +5870,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
         <v>251</v>
       </c>
@@ -5515,8 +5891,11 @@
       <c r="E126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="s">
         <v>253</v>
       </c>
@@ -5530,8 +5909,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="s">
         <v>255</v>
       </c>
@@ -5545,8 +5927,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
         <v>257</v>
       </c>
@@ -5560,8 +5945,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="s">
         <v>259</v>
       </c>
@@ -5575,8 +5963,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="s">
         <v>261</v>
       </c>
@@ -5590,8 +5981,11 @@
         <f t="shared" ref="D131:D194" si="2">IF(C131&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" t="s">
         <v>263</v>
       </c>
@@ -5605,8 +5999,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" t="s">
         <v>265</v>
       </c>
@@ -5620,8 +6017,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" t="s">
         <v>267</v>
       </c>
@@ -5635,8 +6035,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" t="s">
         <v>269</v>
       </c>
@@ -5650,8 +6053,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" t="s">
         <v>271</v>
       </c>
@@ -5665,8 +6071,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" t="s">
         <v>273</v>
       </c>
@@ -5680,8 +6089,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" t="s">
         <v>275</v>
       </c>
@@ -5695,8 +6107,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" t="s">
         <v>277</v>
       </c>
@@ -5710,8 +6125,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" t="s">
         <v>279</v>
       </c>
@@ -5725,8 +6143,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" t="s">
         <v>281</v>
       </c>
@@ -5740,8 +6161,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" t="s">
         <v>283</v>
       </c>
@@ -5755,8 +6179,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" t="s">
         <v>285</v>
       </c>
@@ -5770,8 +6197,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" t="s">
         <v>287</v>
       </c>
@@ -5788,8 +6218,11 @@
       <c r="E144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" t="s">
         <v>289</v>
       </c>
@@ -5803,8 +6236,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" t="s">
         <v>291</v>
       </c>
@@ -5821,8 +6257,11 @@
       <c r="E146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" t="s">
         <v>293</v>
       </c>
@@ -5836,8 +6275,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" t="s">
         <v>295</v>
       </c>
@@ -5851,8 +6293,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" t="s">
         <v>297</v>
       </c>
@@ -5866,8 +6311,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" t="s">
         <v>299</v>
       </c>
@@ -5884,8 +6332,11 @@
       <c r="E150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" t="s">
         <v>301</v>
       </c>
@@ -5899,8 +6350,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" t="s">
         <v>303</v>
       </c>
@@ -5914,8 +6368,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" t="s">
         <v>305</v>
       </c>
@@ -5929,8 +6386,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" t="s">
         <v>307</v>
       </c>
@@ -5944,8 +6404,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" t="s">
         <v>309</v>
       </c>
@@ -5959,8 +6422,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" t="s">
         <v>311</v>
       </c>
@@ -5974,8 +6440,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" t="s">
         <v>313</v>
       </c>
@@ -5989,8 +6458,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" t="s">
         <v>315</v>
       </c>
@@ -6004,8 +6476,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" t="s">
         <v>317</v>
       </c>
@@ -6019,8 +6494,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" t="s">
         <v>319</v>
       </c>
@@ -6034,8 +6512,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" t="s">
         <v>321</v>
       </c>
@@ -6049,8 +6530,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" t="s">
         <v>323</v>
       </c>
@@ -6064,8 +6548,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" t="s">
         <v>325</v>
       </c>
@@ -6079,8 +6566,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" t="s">
         <v>327</v>
       </c>
@@ -6094,8 +6584,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" t="s">
         <v>329</v>
       </c>
@@ -6109,8 +6602,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" t="s">
         <v>331</v>
       </c>
@@ -6124,8 +6620,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" t="s">
         <v>333</v>
       </c>
@@ -6139,8 +6638,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" t="s">
         <v>335</v>
       </c>
@@ -6154,8 +6656,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" t="s">
         <v>336</v>
       </c>
@@ -6172,8 +6677,11 @@
       <c r="E169">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" t="s">
         <v>338</v>
       </c>
@@ -6187,8 +6695,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" t="s">
         <v>340</v>
       </c>
@@ -6202,8 +6713,11 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" t="s">
         <v>342</v>
       </c>
@@ -6217,8 +6731,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" t="s">
         <v>344</v>
       </c>
@@ -6232,8 +6749,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" t="s">
         <v>346</v>
       </c>
@@ -6250,8 +6770,11 @@
       <c r="E174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" t="s">
         <v>348</v>
       </c>
@@ -6265,8 +6788,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" t="s">
         <v>350</v>
       </c>
@@ -6280,8 +6806,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" t="s">
         <v>352</v>
       </c>
@@ -6295,8 +6824,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" t="s">
         <v>354</v>
       </c>
@@ -6310,8 +6842,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" t="s">
         <v>356</v>
       </c>
@@ -6325,8 +6860,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" t="s">
         <v>357</v>
       </c>
@@ -6340,8 +6878,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" t="s">
         <v>359</v>
       </c>
@@ -6355,8 +6896,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" t="s">
         <v>361</v>
       </c>
@@ -6370,8 +6914,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" t="s">
         <v>363</v>
       </c>
@@ -6385,8 +6932,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" t="s">
         <v>365</v>
       </c>
@@ -6400,8 +6950,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" t="s">
         <v>367</v>
       </c>
@@ -6415,8 +6968,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" t="s">
         <v>369</v>
       </c>
@@ -6433,8 +6989,11 @@
       <c r="E186">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" t="s">
         <v>371</v>
       </c>
@@ -6448,8 +7007,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" t="s">
         <v>373</v>
       </c>
@@ -6463,8 +7025,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" t="s">
         <v>375</v>
       </c>
@@ -6478,8 +7043,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" t="s">
         <v>377</v>
       </c>
@@ -6493,8 +7061,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" t="s">
         <v>378</v>
       </c>
@@ -6508,8 +7079,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" t="s">
         <v>380</v>
       </c>
@@ -6526,8 +7100,11 @@
       <c r="E192">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" t="s">
         <v>382</v>
       </c>
@@ -6541,8 +7118,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" t="s">
         <v>384</v>
       </c>
@@ -6556,8 +7136,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" t="s">
         <v>386</v>
       </c>
@@ -6571,8 +7154,11 @@
         <f t="shared" ref="D195:D258" si="3">IF(C195&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" t="s">
         <v>388</v>
       </c>
@@ -6586,8 +7172,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" t="s">
         <v>390</v>
       </c>
@@ -6601,8 +7190,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" t="s">
         <v>392</v>
       </c>
@@ -6616,8 +7208,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" t="s">
         <v>394</v>
       </c>
@@ -6631,8 +7226,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" t="s">
         <v>396</v>
       </c>
@@ -6646,8 +7244,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" t="s">
         <v>398</v>
       </c>
@@ -6661,8 +7262,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" t="s">
         <v>400</v>
       </c>
@@ -6676,8 +7280,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" t="s">
         <v>402</v>
       </c>
@@ -6691,8 +7298,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" t="s">
         <v>404</v>
       </c>
@@ -6706,8 +7316,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" t="s">
         <v>406</v>
       </c>
@@ -6721,8 +7334,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" t="s">
         <v>408</v>
       </c>
@@ -6736,8 +7352,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" t="s">
         <v>410</v>
       </c>
@@ -6751,8 +7370,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" t="s">
         <v>412</v>
       </c>
@@ -6766,8 +7388,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" t="s">
         <v>414</v>
       </c>
@@ -6784,8 +7409,11 @@
       <c r="E209">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" t="s">
         <v>416</v>
       </c>
@@ -6799,8 +7427,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" t="s">
         <v>418</v>
       </c>
@@ -6814,8 +7445,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" t="s">
         <v>420</v>
       </c>
@@ -6829,8 +7463,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" t="s">
         <v>422</v>
       </c>
@@ -6844,8 +7481,11 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" t="s">
         <v>424</v>
       </c>
@@ -6859,8 +7499,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" t="s">
         <v>426</v>
       </c>
@@ -6874,8 +7517,11 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" t="s">
         <v>428</v>
       </c>
@@ -6889,8 +7535,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" t="s">
         <v>430</v>
       </c>
@@ -6907,8 +7556,11 @@
       <c r="E217">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" t="s">
         <v>432</v>
       </c>
@@ -6922,8 +7574,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" t="s">
         <v>434</v>
       </c>
@@ -6937,8 +7592,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" t="s">
         <v>436</v>
       </c>
@@ -6952,8 +7610,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" t="s">
         <v>438</v>
       </c>
@@ -6967,8 +7628,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" t="s">
         <v>440</v>
       </c>
@@ -6982,8 +7646,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" t="s">
         <v>442</v>
       </c>
@@ -6997,8 +7664,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" t="s">
         <v>444</v>
       </c>
@@ -7015,8 +7685,11 @@
       <c r="E224">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" t="s">
         <v>446</v>
       </c>
@@ -7030,8 +7703,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" t="s">
         <v>448</v>
       </c>
@@ -7045,8 +7721,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" t="s">
         <v>450</v>
       </c>
@@ -7060,8 +7739,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" t="s">
         <v>452</v>
       </c>
@@ -7078,8 +7760,11 @@
       <c r="E228">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" t="s">
         <v>454</v>
       </c>
@@ -7093,8 +7778,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" t="s">
         <v>456</v>
       </c>
@@ -7108,8 +7796,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" t="s">
         <v>458</v>
       </c>
@@ -7126,8 +7817,11 @@
       <c r="E231">
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" t="s">
         <v>460</v>
       </c>
@@ -7141,8 +7835,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" t="s">
         <v>462</v>
       </c>
@@ -7156,8 +7853,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" t="s">
         <v>464</v>
       </c>
@@ -7171,8 +7871,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" t="s">
         <v>466</v>
       </c>
@@ -7186,8 +7889,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" t="s">
         <v>468</v>
       </c>
@@ -7201,8 +7907,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" t="s">
         <v>470</v>
       </c>
@@ -7216,8 +7925,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" t="s">
         <v>471</v>
       </c>
@@ -7234,8 +7946,11 @@
       <c r="E238">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" t="s">
         <v>473</v>
       </c>
@@ -7249,8 +7964,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" t="s">
         <v>475</v>
       </c>
@@ -7264,8 +7982,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" t="s">
         <v>477</v>
       </c>
@@ -7279,8 +8000,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" t="s">
         <v>479</v>
       </c>
@@ -7294,8 +8018,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" t="s">
         <v>481</v>
       </c>
@@ -7309,8 +8036,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" t="s">
         <v>483</v>
       </c>
@@ -7324,8 +8054,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" t="s">
         <v>485</v>
       </c>
@@ -7339,8 +8072,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" t="s">
         <v>487</v>
       </c>
@@ -7354,8 +8090,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" t="s">
         <v>489</v>
       </c>
@@ -7369,8 +8108,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" t="s">
         <v>491</v>
       </c>
@@ -7384,8 +8126,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" t="s">
         <v>493</v>
       </c>
@@ -7399,8 +8144,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" t="s">
         <v>495</v>
       </c>
@@ -7414,8 +8162,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" t="s">
         <v>497</v>
       </c>
@@ -7429,8 +8180,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" t="s">
         <v>499</v>
       </c>
@@ -7444,8 +8198,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" t="s">
         <v>501</v>
       </c>
@@ -7459,8 +8216,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" t="s">
         <v>503</v>
       </c>
@@ -7474,8 +8234,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" t="s">
         <v>505</v>
       </c>
@@ -7489,8 +8252,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" t="s">
         <v>507</v>
       </c>
@@ -7504,8 +8270,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" t="s">
         <v>509</v>
       </c>
@@ -7519,8 +8288,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" t="s">
         <v>511</v>
       </c>
@@ -7534,8 +8306,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" t="s">
         <v>513</v>
       </c>
@@ -7549,8 +8324,11 @@
         <f t="shared" ref="D259:D322" si="4">IF(C259&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" t="s">
         <v>515</v>
       </c>
@@ -7564,8 +8342,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" t="s">
         <v>517</v>
       </c>
@@ -7579,8 +8360,11 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" t="s">
         <v>519</v>
       </c>
@@ -7594,8 +8378,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" t="s">
         <v>521</v>
       </c>
@@ -7609,8 +8396,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" t="s">
         <v>523</v>
       </c>
@@ -7624,8 +8414,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" t="s">
         <v>525</v>
       </c>
@@ -7639,8 +8432,11 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" t="s">
         <v>527</v>
       </c>
@@ -7654,8 +8450,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" t="s">
         <v>529</v>
       </c>
@@ -7672,8 +8471,11 @@
       <c r="E267">
         <v>0</v>
       </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" t="s">
         <v>531</v>
       </c>
@@ -7687,8 +8489,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" t="s">
         <v>533</v>
       </c>
@@ -7702,8 +8507,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" t="s">
         <v>535</v>
       </c>
@@ -7717,8 +8525,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" t="s">
         <v>537</v>
       </c>
@@ -7732,8 +8543,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" t="s">
         <v>539</v>
       </c>
@@ -7747,8 +8561,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" t="s">
         <v>541</v>
       </c>
@@ -7762,8 +8579,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" t="s">
         <v>543</v>
       </c>
@@ -7777,8 +8597,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" t="s">
         <v>545</v>
       </c>
@@ -7792,8 +8615,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" t="s">
         <v>547</v>
       </c>
@@ -7810,8 +8636,11 @@
       <c r="E276">
         <v>0</v>
       </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" t="s">
         <v>549</v>
       </c>
@@ -7825,8 +8654,11 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" t="s">
         <v>551</v>
       </c>
@@ -7840,8 +8672,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" t="s">
         <v>553</v>
       </c>
@@ -7855,8 +8690,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" t="s">
         <v>555</v>
       </c>
@@ -7870,8 +8708,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" t="s">
         <v>557</v>
       </c>
@@ -7885,8 +8726,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" t="s">
         <v>559</v>
       </c>
@@ -7900,8 +8744,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" t="s">
         <v>561</v>
       </c>
@@ -7915,8 +8762,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" t="s">
         <v>563</v>
       </c>
@@ -7930,8 +8780,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" t="s">
         <v>565</v>
       </c>
@@ -7945,8 +8798,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" t="s">
         <v>567</v>
       </c>
@@ -7960,8 +8816,11 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" t="s">
         <v>569</v>
       </c>
@@ -7975,8 +8834,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" t="s">
         <v>571</v>
       </c>
@@ -7990,8 +8852,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" t="s">
         <v>573</v>
       </c>
@@ -8005,8 +8870,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" t="s">
         <v>575</v>
       </c>
@@ -8020,8 +8888,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" t="s">
         <v>577</v>
       </c>
@@ -8035,8 +8906,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" t="s">
         <v>579</v>
       </c>
@@ -8050,8 +8924,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" t="s">
         <v>581</v>
       </c>
@@ -8065,8 +8942,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" t="s">
         <v>583</v>
       </c>
@@ -8080,8 +8960,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" t="s">
         <v>585</v>
       </c>
@@ -8095,8 +8978,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" t="s">
         <v>587</v>
       </c>
@@ -8110,8 +8996,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" t="s">
         <v>589</v>
       </c>
@@ -8125,8 +9014,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" t="s">
         <v>591</v>
       </c>
@@ -8140,8 +9032,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" t="s">
         <v>593</v>
       </c>
@@ -8155,8 +9050,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" t="s">
         <v>595</v>
       </c>
@@ -8170,8 +9068,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" t="s">
         <v>597</v>
       </c>
@@ -8185,8 +9086,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" t="s">
         <v>599</v>
       </c>
@@ -8200,8 +9104,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" t="s">
         <v>601</v>
       </c>
@@ -8215,8 +9122,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" t="s">
         <v>603</v>
       </c>
@@ -8230,8 +9140,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" t="s">
         <v>605</v>
       </c>
@@ -8245,8 +9158,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" t="s">
         <v>607</v>
       </c>
@@ -8260,8 +9176,11 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" t="s">
         <v>609</v>
       </c>
@@ -8275,8 +9194,11 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" t="s">
         <v>611</v>
       </c>
@@ -8290,8 +9212,11 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" t="s">
         <v>613</v>
       </c>
@@ -8305,8 +9230,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" t="s">
         <v>615</v>
       </c>
@@ -8323,8 +9251,11 @@
       <c r="E310">
         <v>0</v>
       </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" t="s">
         <v>617</v>
       </c>
@@ -8338,8 +9269,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" t="s">
         <v>619</v>
       </c>
@@ -8353,8 +9287,11 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A313" t="s">
         <v>621</v>
       </c>
@@ -8368,8 +9305,11 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A314" t="s">
         <v>623</v>
       </c>
@@ -8383,8 +9323,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A315" t="s">
         <v>625</v>
       </c>
@@ -8398,8 +9341,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A316" t="s">
         <v>627</v>
       </c>
@@ -8413,8 +9359,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A317" t="s">
         <v>629</v>
       </c>
@@ -8428,8 +9377,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A318" t="s">
         <v>631</v>
       </c>
@@ -8443,8 +9395,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A319" t="s">
         <v>633</v>
       </c>
@@ -8458,8 +9413,11 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A320" t="s">
         <v>635</v>
       </c>
@@ -8473,8 +9431,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A321" t="s">
         <v>637</v>
       </c>
@@ -8488,8 +9449,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A322" t="s">
         <v>639</v>
       </c>
@@ -8503,8 +9467,11 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A323" t="s">
         <v>641</v>
       </c>
@@ -8518,8 +9485,11 @@
         <f t="shared" ref="D323:D386" si="5">IF(C323&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A324" t="s">
         <v>643</v>
       </c>
@@ -8533,8 +9503,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A325" t="s">
         <v>645</v>
       </c>
@@ -8548,8 +9521,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A326" t="s">
         <v>647</v>
       </c>
@@ -8563,8 +9539,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A327" t="s">
         <v>649</v>
       </c>
@@ -8578,8 +9557,11 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A328" t="s">
         <v>651</v>
       </c>
@@ -8593,8 +9575,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A329" t="s">
         <v>653</v>
       </c>
@@ -8608,8 +9593,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A330" t="s">
         <v>655</v>
       </c>
@@ -8623,8 +9611,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A331" t="s">
         <v>657</v>
       </c>
@@ -8638,8 +9629,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A332" t="s">
         <v>659</v>
       </c>
@@ -8653,8 +9647,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A333" t="s">
         <v>661</v>
       </c>
@@ -8668,8 +9665,11 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A334" t="s">
         <v>663</v>
       </c>
@@ -8683,8 +9683,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A335" t="s">
         <v>665</v>
       </c>
@@ -8698,8 +9701,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A336" t="s">
         <v>667</v>
       </c>
@@ -8713,8 +9719,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A337" t="s">
         <v>669</v>
       </c>
@@ -8728,8 +9737,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A338" t="s">
         <v>671</v>
       </c>
@@ -8743,8 +9755,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A339" t="s">
         <v>673</v>
       </c>
@@ -8758,8 +9773,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A340" t="s">
         <v>675</v>
       </c>
@@ -8773,8 +9791,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A341" t="s">
         <v>677</v>
       </c>
@@ -8788,8 +9809,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A342" t="s">
         <v>679</v>
       </c>
@@ -8806,8 +9830,11 @@
       <c r="E342">
         <v>0</v>
       </c>
-    </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A343" t="s">
         <v>681</v>
       </c>
@@ -8821,8 +9848,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A344" t="s">
         <v>683</v>
       </c>
@@ -8836,8 +9866,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A345" t="s">
         <v>685</v>
       </c>
@@ -8851,8 +9884,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A346" t="s">
         <v>687</v>
       </c>
@@ -8866,8 +9902,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A347" t="s">
         <v>689</v>
       </c>
@@ -8881,8 +9920,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A348" t="s">
         <v>691</v>
       </c>
@@ -8896,8 +9938,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A349" t="s">
         <v>693</v>
       </c>
@@ -8911,8 +9956,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A350" t="s">
         <v>695</v>
       </c>
@@ -8926,8 +9974,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A351" t="s">
         <v>697</v>
       </c>
@@ -8941,8 +9992,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A352" t="s">
         <v>699</v>
       </c>
@@ -8956,8 +10010,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A353" t="s">
         <v>701</v>
       </c>
@@ -8974,8 +10031,11 @@
       <c r="E353">
         <v>0</v>
       </c>
-    </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A354" t="s">
         <v>703</v>
       </c>
@@ -8992,8 +10052,11 @@
       <c r="E354">
         <v>0</v>
       </c>
-    </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A355" t="s">
         <v>705</v>
       </c>
@@ -9007,8 +10070,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A356" t="s">
         <v>707</v>
       </c>
@@ -9025,8 +10091,11 @@
       <c r="E356">
         <v>0</v>
       </c>
-    </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A357" t="s">
         <v>709</v>
       </c>
@@ -9040,8 +10109,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A358" t="s">
         <v>711</v>
       </c>
@@ -9055,8 +10127,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A359" t="s">
         <v>713</v>
       </c>
@@ -9070,8 +10145,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A360" t="s">
         <v>715</v>
       </c>
@@ -9085,8 +10163,11 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E360">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A361" t="s">
         <v>717</v>
       </c>
@@ -9100,8 +10181,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A362" t="s">
         <v>719</v>
       </c>
@@ -9115,8 +10199,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A363" t="s">
         <v>721</v>
       </c>
@@ -9130,8 +10217,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A364" t="s">
         <v>723</v>
       </c>
@@ -9145,8 +10235,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A365" t="s">
         <v>725</v>
       </c>
@@ -9160,8 +10253,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A366" t="s">
         <v>727</v>
       </c>
@@ -9175,8 +10271,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A367" t="s">
         <v>729</v>
       </c>
@@ -9190,8 +10289,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A368" t="s">
         <v>731</v>
       </c>
@@ -9205,8 +10307,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A369" t="s">
         <v>733</v>
       </c>
@@ -9220,8 +10325,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A370" t="s">
         <v>735</v>
       </c>
@@ -9235,8 +10343,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A371" t="s">
         <v>737</v>
       </c>
@@ -9250,8 +10361,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A372" t="s">
         <v>739</v>
       </c>
@@ -9268,8 +10382,11 @@
       <c r="E372">
         <v>0</v>
       </c>
-    </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A373" t="s">
         <v>741</v>
       </c>
@@ -9286,8 +10403,11 @@
       <c r="E373">
         <v>0</v>
       </c>
-    </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A374" t="s">
         <v>743</v>
       </c>
@@ -9304,8 +10424,11 @@
       <c r="E374">
         <v>0</v>
       </c>
-    </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A375" t="s">
         <v>745</v>
       </c>
@@ -9319,8 +10442,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A376" t="s">
         <v>747</v>
       </c>
@@ -9334,8 +10460,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A377" t="s">
         <v>749</v>
       </c>
@@ -9349,8 +10478,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A378" t="s">
         <v>751</v>
       </c>
@@ -9364,8 +10496,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A379" t="s">
         <v>753</v>
       </c>
@@ -9379,8 +10514,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A380" t="s">
         <v>755</v>
       </c>
@@ -9394,8 +10532,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A381" t="s">
         <v>757</v>
       </c>
@@ -9409,8 +10550,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A382" t="s">
         <v>759</v>
       </c>
@@ -9424,8 +10568,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A383" t="s">
         <v>761</v>
       </c>
@@ -9439,8 +10586,11 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E383">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A384" t="s">
         <v>763</v>
       </c>
@@ -9454,8 +10604,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A385" t="s">
         <v>765</v>
       </c>
@@ -9469,8 +10622,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A386" t="s">
         <v>767</v>
       </c>
@@ -9484,8 +10640,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A387" t="s">
         <v>769</v>
       </c>
@@ -9499,8 +10658,11 @@
         <f t="shared" ref="D387:D450" si="6">IF(C387&gt;0.5, 1, 0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E387">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A388" t="s">
         <v>771</v>
       </c>
@@ -9514,8 +10676,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E388">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A389" t="s">
         <v>773</v>
       </c>
@@ -9532,8 +10697,11 @@
       <c r="E389">
         <v>0</v>
       </c>
-    </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F389">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A390" t="s">
         <v>775</v>
       </c>
@@ -9547,8 +10715,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A391" t="s">
         <v>777</v>
       </c>
@@ -9562,8 +10733,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E391">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A392" t="s">
         <v>779</v>
       </c>
@@ -9577,8 +10751,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A393" t="s">
         <v>781</v>
       </c>
@@ -9592,8 +10769,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E393">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A394" t="s">
         <v>783</v>
       </c>
@@ -9607,8 +10787,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A395" t="s">
         <v>785</v>
       </c>
@@ -9622,8 +10805,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E395">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A396" t="s">
         <v>787</v>
       </c>
@@ -9637,8 +10823,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E396">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A397" t="s">
         <v>789</v>
       </c>
@@ -9652,8 +10841,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E397">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A398" t="s">
         <v>791</v>
       </c>
@@ -9667,8 +10859,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E398">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A399" t="s">
         <v>793</v>
       </c>
@@ -9682,8 +10877,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A400" t="s">
         <v>795</v>
       </c>
@@ -9697,8 +10895,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E400">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A401" t="s">
         <v>797</v>
       </c>
@@ -9712,8 +10913,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E401">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A402" t="s">
         <v>799</v>
       </c>
@@ -9727,8 +10931,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E402">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A403" t="s">
         <v>801</v>
       </c>
@@ -9742,8 +10949,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E403">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A404" t="s">
         <v>803</v>
       </c>
@@ -9757,8 +10967,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E404">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A405" t="s">
         <v>805</v>
       </c>
@@ -9772,8 +10985,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E405">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A406" t="s">
         <v>807</v>
       </c>
@@ -9787,8 +11003,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E406">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A407" t="s">
         <v>809</v>
       </c>
@@ -9802,8 +11021,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E407">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A408" t="s">
         <v>811</v>
       </c>
@@ -9817,8 +11039,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E408">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A409" t="s">
         <v>813</v>
       </c>
@@ -9832,8 +11057,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E409">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A410" t="s">
         <v>815</v>
       </c>
@@ -9847,8 +11075,11 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E410">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A411" t="s">
         <v>817</v>
       </c>
@@ -9862,8 +11093,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E411">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A412" t="s">
         <v>819</v>
       </c>
@@ -9877,8 +11111,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E412">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A413" t="s">
         <v>821</v>
       </c>
@@ -9892,8 +11129,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E413">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A414" t="s">
         <v>823</v>
       </c>
@@ -9907,8 +11147,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E414">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A415" t="s">
         <v>825</v>
       </c>
@@ -9922,8 +11165,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E415">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A416" t="s">
         <v>827</v>
       </c>
@@ -9937,8 +11183,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E416">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A417" t="s">
         <v>829</v>
       </c>
@@ -9952,8 +11201,11 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E417">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A418" t="s">
         <v>831</v>
       </c>
@@ -9967,8 +11219,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E418">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A419" t="s">
         <v>833</v>
       </c>
@@ -9982,8 +11237,11 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E419">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A420" t="s">
         <v>835</v>
       </c>
@@ -9997,8 +11255,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E420">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A421" t="s">
         <v>837</v>
       </c>
@@ -10012,8 +11273,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E421">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A422" t="s">
         <v>839</v>
       </c>
@@ -10027,8 +11291,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E422">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A423" t="s">
         <v>841</v>
       </c>
@@ -10042,8 +11309,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E423">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A424" t="s">
         <v>843</v>
       </c>
@@ -10057,8 +11327,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E424">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A425" t="s">
         <v>845</v>
       </c>
@@ -10072,8 +11345,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E425">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A426" t="s">
         <v>847</v>
       </c>
@@ -10087,8 +11363,11 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E426">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A427" t="s">
         <v>849</v>
       </c>
@@ -10102,8 +11381,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E427">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A428" t="s">
         <v>851</v>
       </c>
@@ -10117,8 +11399,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E428">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A429" t="s">
         <v>851</v>
       </c>
@@ -10132,8 +11417,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E429">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A430" t="s">
         <v>854</v>
       </c>
@@ -10147,8 +11435,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E430">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A431" t="s">
         <v>856</v>
       </c>
@@ -10162,8 +11453,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E431">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A432" t="s">
         <v>858</v>
       </c>
@@ -10177,8 +11471,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E432">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A433" t="s">
         <v>860</v>
       </c>
@@ -10192,8 +11489,11 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E433">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A434" t="s">
         <v>862</v>
       </c>
@@ -10207,8 +11507,11 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E434">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A435" t="s">
         <v>864</v>
       </c>
@@ -10222,8 +11525,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E435">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A436" t="s">
         <v>866</v>
       </c>
@@ -10237,8 +11543,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E436">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A437" t="s">
         <v>868</v>
       </c>
@@ -10255,8 +11564,11 @@
       <c r="E437">
         <v>0</v>
       </c>
-    </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F437">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A438" t="s">
         <v>870</v>
       </c>
@@ -10270,8 +11582,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E438">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A439" t="s">
         <v>872</v>
       </c>
@@ -10285,8 +11600,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E439">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A440" t="s">
         <v>874</v>
       </c>
@@ -10300,8 +11618,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E440">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A441" t="s">
         <v>876</v>
       </c>
@@ -10315,8 +11636,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E441">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A442" t="s">
         <v>878</v>
       </c>
@@ -10330,8 +11654,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E442">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A443" t="s">
         <v>880</v>
       </c>
@@ -10345,8 +11672,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E443">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A444" t="s">
         <v>882</v>
       </c>
@@ -10360,8 +11690,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E444">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A445" t="s">
         <v>884</v>
       </c>
@@ -10375,8 +11708,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E445">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A446" t="s">
         <v>886</v>
       </c>
@@ -10390,8 +11726,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E446">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A447" t="s">
         <v>888</v>
       </c>
@@ -10405,8 +11744,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E447">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A448" t="s">
         <v>890</v>
       </c>
@@ -10420,8 +11762,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E448">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A449" t="s">
         <v>892</v>
       </c>
@@ -10435,8 +11780,11 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E449">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A450" t="s">
         <v>894</v>
       </c>
@@ -10450,8 +11798,11 @@
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E450">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A451" t="s">
         <v>896</v>
       </c>
@@ -10465,8 +11816,11 @@
         <f t="shared" ref="D451:D514" si="7">IF(C451&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E451">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A452" t="s">
         <v>898</v>
       </c>
@@ -10483,8 +11837,11 @@
       <c r="E452">
         <v>0</v>
       </c>
-    </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F452">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A453" t="s">
         <v>900</v>
       </c>
@@ -10501,8 +11858,11 @@
       <c r="E453">
         <v>0</v>
       </c>
-    </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F453">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A454" t="s">
         <v>902</v>
       </c>
@@ -10516,8 +11876,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E454">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A455" t="s">
         <v>904</v>
       </c>
@@ -10531,8 +11894,11 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E455">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A456" t="s">
         <v>906</v>
       </c>
@@ -10546,8 +11912,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E456">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A457" t="s">
         <v>908</v>
       </c>
@@ -10561,8 +11930,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E457">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A458" t="s">
         <v>910</v>
       </c>
@@ -10576,8 +11948,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E458">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A459" t="s">
         <v>912</v>
       </c>
@@ -10591,8 +11966,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E459">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A460" t="s">
         <v>914</v>
       </c>
@@ -10606,8 +11984,11 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E460">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A461" t="s">
         <v>916</v>
       </c>
@@ -10621,8 +12002,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E461">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A462" t="s">
         <v>918</v>
       </c>
@@ -10636,8 +12020,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E462">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A463" t="s">
         <v>920</v>
       </c>
@@ -10651,8 +12038,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E463">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A464" t="s">
         <v>922</v>
       </c>
@@ -10666,8 +12056,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E464">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A465" t="s">
         <v>924</v>
       </c>
@@ -10681,8 +12074,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E465">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A466" t="s">
         <v>926</v>
       </c>
@@ -10696,8 +12092,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E466">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A467" t="s">
         <v>928</v>
       </c>
@@ -10711,8 +12110,11 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E467">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A468" t="s">
         <v>930</v>
       </c>
@@ -10726,8 +12128,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E468">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A469" t="s">
         <v>932</v>
       </c>
@@ -10741,8 +12146,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E469">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A470" t="s">
         <v>934</v>
       </c>
@@ -10756,8 +12164,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E470">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A471" t="s">
         <v>936</v>
       </c>
@@ -10771,8 +12182,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E471">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A472" t="s">
         <v>938</v>
       </c>
@@ -10786,8 +12200,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E472">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A473" t="s">
         <v>940</v>
       </c>
@@ -10801,8 +12218,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E473">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A474" t="s">
         <v>942</v>
       </c>
@@ -10816,8 +12236,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E474">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A475" t="s">
         <v>944</v>
       </c>
@@ -10831,8 +12254,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E475">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A476" t="s">
         <v>946</v>
       </c>
@@ -10846,8 +12272,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E476">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A477" t="s">
         <v>948</v>
       </c>
@@ -10861,8 +12290,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E477">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A478" t="s">
         <v>950</v>
       </c>
@@ -10876,8 +12308,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E478">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A479" t="s">
         <v>952</v>
       </c>
@@ -10891,8 +12326,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E479">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A480" t="s">
         <v>954</v>
       </c>
@@ -10906,8 +12344,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E480">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A481" t="s">
         <v>956</v>
       </c>
@@ -10921,8 +12362,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E481">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A482" t="s">
         <v>958</v>
       </c>
@@ -10936,8 +12380,11 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E482">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A483" t="s">
         <v>960</v>
       </c>
@@ -10951,8 +12398,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E483">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A484" t="s">
         <v>962</v>
       </c>
@@ -10966,8 +12416,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E484">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A485" t="s">
         <v>964</v>
       </c>
@@ -10981,8 +12434,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E485">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A486" t="s">
         <v>966</v>
       </c>
@@ -10996,8 +12452,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E486">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A487" t="s">
         <v>968</v>
       </c>
@@ -11011,8 +12470,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E487">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A488" t="s">
         <v>970</v>
       </c>
@@ -11026,8 +12488,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E488">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A489" t="s">
         <v>972</v>
       </c>
@@ -11041,8 +12506,11 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E489">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A490" t="s">
         <v>974</v>
       </c>
@@ -11056,8 +12524,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E490">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A491" t="s">
         <v>976</v>
       </c>
@@ -11071,8 +12542,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E491">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A492" t="s">
         <v>978</v>
       </c>
@@ -11086,8 +12560,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E492">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A493" t="s">
         <v>980</v>
       </c>
@@ -11101,8 +12578,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E493">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A494" t="s">
         <v>982</v>
       </c>
@@ -11116,8 +12596,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E494">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A495" t="s">
         <v>984</v>
       </c>
@@ -11131,8 +12614,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E495">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A496" t="s">
         <v>986</v>
       </c>
@@ -11146,8 +12632,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E496">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A497" t="s">
         <v>988</v>
       </c>
@@ -11161,8 +12650,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E497">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A498" t="s">
         <v>990</v>
       </c>
@@ -11176,8 +12668,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E498">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A499" t="s">
         <v>992</v>
       </c>
@@ -11191,8 +12686,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E499">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A500" t="s">
         <v>994</v>
       </c>
@@ -11206,8 +12704,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E500">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A501" t="s">
         <v>996</v>
       </c>
@@ -11221,8 +12722,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E501">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A502" t="s">
         <v>998</v>
       </c>
@@ -11236,8 +12740,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E502">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A503" t="s">
         <v>1000</v>
       </c>
@@ -11251,8 +12758,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E503">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A504" t="s">
         <v>1002</v>
       </c>
@@ -11266,8 +12776,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E504">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A505" t="s">
         <v>1004</v>
       </c>
@@ -11281,8 +12794,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E505">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A506" t="s">
         <v>1006</v>
       </c>
@@ -11296,8 +12812,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E506">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A507" t="s">
         <v>1008</v>
       </c>
@@ -11311,8 +12830,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E507">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A508" t="s">
         <v>1010</v>
       </c>
@@ -11326,8 +12848,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E508">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A509" t="s">
         <v>1012</v>
       </c>
@@ -11341,8 +12866,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E509">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A510" t="s">
         <v>1014</v>
       </c>
@@ -11356,8 +12884,11 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E510">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A511" t="s">
         <v>1016</v>
       </c>
@@ -11371,8 +12902,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E511">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A512" t="s">
         <v>1018</v>
       </c>
@@ -11386,8 +12920,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E512">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A513" t="s">
         <v>1020</v>
       </c>
@@ -11401,8 +12938,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E513">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A514" t="s">
         <v>1022</v>
       </c>
@@ -11416,8 +12956,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E514">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A515" t="s">
         <v>1024</v>
       </c>
@@ -11431,8 +12974,11 @@
         <f t="shared" ref="D515:D530" si="8">IF(C515&gt;0.5, 1, 0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E515">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A516" t="s">
         <v>1026</v>
       </c>
@@ -11449,8 +12995,11 @@
       <c r="E516">
         <v>0</v>
       </c>
-    </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F516">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A517" t="s">
         <v>1028</v>
       </c>
@@ -11464,8 +13013,11 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E517">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A518" t="s">
         <v>1030</v>
       </c>
@@ -11479,8 +13031,11 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E518">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A519" t="s">
         <v>1032</v>
       </c>
@@ -11494,8 +13049,11 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E519">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A520" t="s">
         <v>1034</v>
       </c>
@@ -11509,8 +13067,11 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E520">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A521" t="s">
         <v>1036</v>
       </c>
@@ -11524,8 +13085,11 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E521">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A522" t="s">
         <v>1038</v>
       </c>
@@ -11539,8 +13103,11 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E522">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A523" t="s">
         <v>1040</v>
       </c>
@@ -11554,8 +13121,11 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E523">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A524" t="s">
         <v>1042</v>
       </c>
@@ -11569,8 +13139,11 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E524">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A525" t="s">
         <v>1044</v>
       </c>
@@ -11584,8 +13157,11 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E525">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A526" t="s">
         <v>1046</v>
       </c>
@@ -11599,8 +13175,11 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E526">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A527" t="s">
         <v>1048</v>
       </c>
@@ -11614,8 +13193,11 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E527">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A528" t="s">
         <v>1050</v>
       </c>
@@ -11629,8 +13211,11 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E528">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A529" t="s">
         <v>1052</v>
       </c>
@@ -11644,8 +13229,11 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E529">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A530" t="s">
         <v>1054</v>
       </c>
@@ -11657,6 +13245,9 @@
       </c>
       <c r="D530">
         <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E530">
         <v>0</v>
       </c>
     </row>
